--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H2">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I2">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J2">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>19.58762384295889</v>
+        <v>7.587018741704776</v>
       </c>
       <c r="R2">
-        <v>176.28861458663</v>
+        <v>68.28316867534299</v>
       </c>
       <c r="S2">
-        <v>0.06043057176114929</v>
+        <v>0.1355393623802503</v>
       </c>
       <c r="T2">
-        <v>0.06043057176114928</v>
+        <v>0.1355393623802502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H3">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I3">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J3">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>3.034343812160555</v>
+        <v>2.200682199703889</v>
       </c>
       <c r="R3">
-        <v>27.309094309445</v>
+        <v>19.806139797335</v>
       </c>
       <c r="S3">
-        <v>0.009361377008201137</v>
+        <v>0.03931439637941495</v>
       </c>
       <c r="T3">
-        <v>0.009361377008201135</v>
+        <v>0.03931439637941495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H4">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I4">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J4">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>2.868363913526223</v>
+        <v>2.784611057411666</v>
       </c>
       <c r="R4">
-        <v>25.815275221736</v>
+        <v>25.061499516705</v>
       </c>
       <c r="S4">
-        <v>0.008849305699514254</v>
+        <v>0.0497460755070925</v>
       </c>
       <c r="T4">
-        <v>0.008849305699514252</v>
+        <v>0.04974607550709249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.168329</v>
       </c>
       <c r="I5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>24.95061727961445</v>
+        <v>13.32533552883456</v>
       </c>
       <c r="R5">
-        <v>224.55555551653</v>
+        <v>119.928019759511</v>
       </c>
       <c r="S5">
-        <v>0.07697616005336501</v>
+        <v>0.2380523289277264</v>
       </c>
       <c r="T5">
-        <v>0.07697616005336501</v>
+        <v>0.2380523289277264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.168329</v>
       </c>
       <c r="I6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
         <v>3.865131971032778</v>
@@ -818,10 +818,10 @@
         <v>34.78618773929499</v>
       </c>
       <c r="S6">
-        <v>0.01192447521018585</v>
+        <v>0.06904919319490033</v>
       </c>
       <c r="T6">
-        <v>0.01192447521018585</v>
+        <v>0.06904919319490031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.168329</v>
       </c>
       <c r="I7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>3.653707606335112</v>
+        <v>4.890705812198334</v>
       </c>
       <c r="R7">
-        <v>32.883368457016</v>
+        <v>44.016352309785</v>
       </c>
       <c r="S7">
-        <v>0.01127220133841093</v>
+        <v>0.08737070118608915</v>
       </c>
       <c r="T7">
-        <v>0.01127220133841093</v>
+        <v>0.08737070118608914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H8">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I8">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J8">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N8">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q8">
-        <v>204.5374377339223</v>
+        <v>12.86780752910678</v>
       </c>
       <c r="R8">
-        <v>1840.8369396053</v>
+        <v>115.810267761961</v>
       </c>
       <c r="S8">
-        <v>0.6310267344277455</v>
+        <v>0.2298787556883014</v>
       </c>
       <c r="T8">
-        <v>0.6310267344277454</v>
+        <v>0.2298787556883014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H9">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I9">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J9">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q9">
-        <v>31.68515556143889</v>
+        <v>3.732421909393889</v>
       </c>
       <c r="R9">
-        <v>285.16640005295</v>
+        <v>33.591797184545</v>
       </c>
       <c r="S9">
-        <v>0.09775315690509354</v>
+        <v>0.0666783756513632</v>
       </c>
       <c r="T9">
-        <v>0.09775315690509352</v>
+        <v>0.06667837565136318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H10">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I10">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J10">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N10">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q10">
-        <v>29.95196405979556</v>
+        <v>4.722782472281668</v>
       </c>
       <c r="R10">
-        <v>269.56767653816</v>
+        <v>42.50504225053501</v>
       </c>
       <c r="S10">
-        <v>0.09240601759633449</v>
+        <v>0.08437081108486175</v>
       </c>
       <c r="T10">
-        <v>0.09240601759633447</v>
+        <v>0.08437081108486173</v>
       </c>
     </row>
   </sheetData>
